--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdcd1lg2-Pdcd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdcd1lg2-Pdcd1.xlsx
@@ -79,13 +79,13 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Pdcd1lg2</t>
+  </si>
+  <si>
+    <t>Pdcd1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pdcd1lg2</t>
-  </si>
-  <si>
-    <t>Pdcd1</t>
   </si>
 </sst>
 </file>
@@ -516,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,60 +531,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2637156666666667</v>
+        <v>0.449785</v>
       </c>
       <c r="H2">
-        <v>0.791147</v>
+        <v>1.349355</v>
       </c>
       <c r="I2">
-        <v>0.4523450677248013</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4523450677248012</v>
+        <v>1</v>
       </c>
       <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.451336</v>
+        <v>0.6671056666666667</v>
       </c>
       <c r="N2">
-        <v>1.354008</v>
+        <v>2.001317</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.91238273339576</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.91238273339576</v>
       </c>
       <c r="Q2">
-        <v>0.1190243741306667</v>
+        <v>0.3000541222816667</v>
       </c>
       <c r="R2">
-        <v>1.071219367176</v>
+        <v>2.700487100535001</v>
       </c>
       <c r="S2">
-        <v>0.4523450677248013</v>
+        <v>0.91238273339576</v>
       </c>
       <c r="T2">
-        <v>0.4523450677248012</v>
+        <v>0.91238273339576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -593,46 +593,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.319281</v>
+        <v>0.449785</v>
       </c>
       <c r="H3">
-        <v>0.957843</v>
+        <v>1.349355</v>
       </c>
       <c r="I3">
-        <v>0.5476549322751989</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5476549322751988</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.451336</v>
+        <v>0.06406299999999999</v>
       </c>
       <c r="N3">
-        <v>1.354008</v>
+        <v>0.192189</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.08761726660423996</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.08761726660423996</v>
       </c>
       <c r="Q3">
-        <v>0.144103009416</v>
+        <v>0.028814576455</v>
       </c>
       <c r="R3">
-        <v>1.296927084744</v>
+        <v>0.259331188095</v>
       </c>
       <c r="S3">
-        <v>0.5476549322751989</v>
+        <v>0.08761726660423996</v>
       </c>
       <c r="T3">
-        <v>0.5476549322751988</v>
+        <v>0.08761726660423996</v>
       </c>
     </row>
   </sheetData>
